--- a/src/services/templates/templateJobs.xlsx
+++ b/src/services/templates/templateJobs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB49C1A-B464-9E40-9EA0-CE9B6E74596D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB56ACD8-6470-394E-BD28-A08E34F049E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Key</t>
   </si>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>ReleaseVersionId</t>
+  </si>
+  <si>
+    <t>Release</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -501,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F339F050-F236-E847-B561-034F11FAD64C}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -533,7 +541,7 @@
     <col min="22" max="16384" width="28.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -596,6 +604,12 @@
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
